--- a/data/cashflow_data/plus91_share_transfers.xlsx
+++ b/data/cashflow_data/plus91_share_transfers.xlsx
@@ -1,76 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>broker_code</t>
-  </si>
-  <si>
-    <t>event_date</t>
-  </si>
-  <si>
-    <t>cashflow</t>
-  </si>
-  <si>
-    <t>BLQ476</t>
-  </si>
-  <si>
-    <t>MM5525</t>
-  </si>
-  <si>
-    <t>MDK705</t>
-  </si>
-  <si>
-    <t>DS069</t>
-  </si>
-  <si>
-    <t>CK012</t>
-  </si>
-  <si>
-    <t>MG042</t>
-  </si>
-  <si>
-    <t>SG102</t>
-  </si>
-  <si>
-    <t>SG103</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">broker_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLQ476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM5525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDK705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CK012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,83 +107,115 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -166,398 +223,315 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.71"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3" t="n">
         <v>44615</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1" t="n">
         <v>37880481</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3" t="n">
         <v>45111</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1" t="n">
         <v>1230176</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3" t="n">
         <v>45155</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1" t="n">
         <v>2990000</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1" t="n">
         <v>495000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1" t="n">
         <v>1360000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1" t="n">
         <v>3823604.85</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1" t="n">
         <v>6810208.41</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3" t="n">
         <v>45454</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1" t="n">
         <v>3500166</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3" t="n">
         <v>45100</v>
       </c>
-      <c r="C10">
-        <v>674757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C10" s="1" t="n">
+        <v>474757</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3" t="n">
         <v>45637</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1" t="n">
         <v>2358576</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3" t="n">
         <v>44927</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1" t="n">
         <v>719368</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3" t="n">
         <v>44927</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1" t="n">
         <v>2011783</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>44987</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>2109298</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/cashflow_data/plus91_share_transfers.xlsx
+++ b/data/cashflow_data/plus91_share_transfers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t xml:space="preserve">broker_code</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t xml:space="preserve">MN025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JC555</t>
   </si>
 </sst>
 </file>
@@ -66,7 +72,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,18 +98,31 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -147,7 +166,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -156,15 +175,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -360,13 +383,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.71"/>
   </cols>
@@ -381,149 +404,203 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44615</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="3" t="n">
         <v>37880481</v>
       </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>45111</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="3" t="n">
         <v>1230176</v>
       </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>45155</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="3" t="n">
         <v>2990000</v>
       </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>45282</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="3" t="n">
         <v>495000</v>
       </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>45282</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="3" t="n">
         <v>1360000</v>
       </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44692</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="3" t="n">
         <v>3823604.85</v>
       </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44692</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="3" t="n">
         <v>6810208.41</v>
       </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>45454</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="3" t="n">
         <v>3500166</v>
       </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>45100</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="3" t="n">
         <v>474757</v>
       </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>45637</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="3" t="n">
         <v>2358576</v>
       </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44927</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="3" t="n">
         <v>719368</v>
       </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44927</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="3" t="n">
         <v>2011783</v>
       </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44987</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="5" t="n">
         <v>2109298</v>
       </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>45762</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>3457500</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>45473</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>1315776.61</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/cashflow_data/plus91_share_transfers.xlsx
+++ b/data/cashflow_data/plus91_share_transfers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t xml:space="preserve">broker_code</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">JC555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJ081</t>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -189,6 +192,14 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -383,10 +394,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -602,6 +613,19 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v>45608</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>1770000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
